--- a/medicine/Psychotrope/Cervoisier/Cervoisier.xlsx
+++ b/medicine/Psychotrope/Cervoisier/Cervoisier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme cervoisier est un ancien mot utilisé pour désigner un brasseur[1]. Littéralement le terme désigne un fabricant de cervoise, l'ancêtre de la bière.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme cervoisier est un ancien mot utilisé pour désigner un brasseur. Littéralement le terme désigne un fabricant de cervoise, l'ancêtre de la bière.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Dictionnaire Universel Des Arts Et Des Sciences, François, Latin Et Anglois, Ou Encyclopédie Françoise, Latine et Angloise ou dictionnaire universel des arts et des sciences François, Latine Et Angloise Contenant La signification Et L'Explication De Tous les mots de ces trois Langues, &amp; de tous les termes relatifs aux Arts &amp; aux Sciences, 1775, p. 200 en ligne sur Google Books
